--- a/files/rice_cropping_calendar_template.xlsx
+++ b/files/rice_cropping_calendar_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DA13-ICTU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DA13-ICTU\Videos\FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C4879A36-CDA9-4B4F-A4C9-8C75721777B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79CCE889-819C-49A3-A884-B36B314FA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8568" yWindow="0" windowWidth="14568" windowHeight="12336" xr2:uid="{E7923F38-1663-594D-8E78-F7F4F677AEE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7923F38-1663-594D-8E78-F7F4F677AEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="rice_cropping_calendar" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>San Agustin</t>
   </si>
   <si>
-    <t xml:space="preserve">San Miguel </t>
-  </si>
-  <si>
     <t>Tagbina</t>
   </si>
   <si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>Tandag City</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1679D6-AB24-1748-81E3-48903DD4898D}">
   <dimension ref="A1:AA229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1426,7 +1426,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1483,7 +1483,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>35</v>
@@ -1540,7 +1540,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1597,7 +1597,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>36</v>
@@ -1654,7 +1654,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1711,7 +1711,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>36</v>
@@ -1766,7 +1766,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1801,7 +1801,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1836,7 +1836,7 @@
         <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1893,7 +1893,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>34</v>
@@ -1950,7 +1950,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2007,7 +2007,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
@@ -2064,7 +2064,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2121,7 +2121,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -2178,7 +2178,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2235,7 +2235,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>37</v>
@@ -2292,7 +2292,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2349,7 +2349,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>37</v>
@@ -2406,7 +2406,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2463,7 +2463,7 @@
         <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>37</v>
@@ -2520,7 +2520,7 @@
         <v>68</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2577,7 +2577,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>34</v>
@@ -2634,7 +2634,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2669,7 +2669,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2704,7 +2704,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2761,7 +2761,7 @@
         <v>71</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>36</v>
@@ -2818,7 +2818,7 @@
         <v>72</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2875,7 +2875,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>36</v>
@@ -2932,7 +2932,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2989,7 +2989,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>36</v>
@@ -3046,7 +3046,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3103,7 +3103,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>36</v>
@@ -3160,7 +3160,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3217,7 +3217,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>36</v>
@@ -3274,7 +3274,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3331,7 +3331,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>36</v>
@@ -3388,7 +3388,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3445,7 +3445,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>34</v>
@@ -3502,7 +3502,7 @@
         <v>78</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3559,7 +3559,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>36</v>
@@ -3616,7 +3616,7 @@
         <v>79</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3673,7 +3673,7 @@
         <v>79</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>36</v>
@@ -3730,7 +3730,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3787,7 +3787,7 @@
         <v>80</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>36</v>
@@ -3844,7 +3844,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3885,7 +3885,7 @@
         <v>81</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>36</v>
@@ -3936,7 +3936,7 @@
         <v>82</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3993,7 +3993,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>36</v>
@@ -4050,7 +4050,7 @@
         <v>83</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4107,7 +4107,7 @@
         <v>83</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>36</v>
@@ -4164,7 +4164,7 @@
         <v>84</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4221,7 +4221,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>36</v>
@@ -4278,7 +4278,7 @@
         <v>86</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4335,7 +4335,7 @@
         <v>86</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>36</v>
@@ -4392,7 +4392,7 @@
         <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4449,7 +4449,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>36</v>
@@ -4506,7 +4506,7 @@
         <v>88</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4563,7 +4563,7 @@
         <v>88</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>35</v>
@@ -4620,7 +4620,7 @@
         <v>89</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -4677,7 +4677,7 @@
         <v>89</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>36</v>
@@ -4734,7 +4734,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -4791,7 +4791,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>36</v>
@@ -4848,7 +4848,7 @@
         <v>90</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -4905,7 +4905,7 @@
         <v>90</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>36</v>
@@ -4962,7 +4962,7 @@
         <v>91</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5019,7 +5019,7 @@
         <v>91</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>35</v>
@@ -5076,7 +5076,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5133,7 +5133,7 @@
         <v>92</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>34</v>
@@ -5190,7 +5190,7 @@
         <v>93</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5247,7 +5247,7 @@
         <v>93</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>36</v>
@@ -5304,7 +5304,7 @@
         <v>94</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -5361,7 +5361,7 @@
         <v>94</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>36</v>
@@ -5418,7 +5418,7 @@
         <v>95</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -5475,7 +5475,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>36</v>
@@ -5532,7 +5532,7 @@
         <v>96</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -5587,7 +5587,7 @@
         <v>96</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>36</v>
@@ -5644,7 +5644,7 @@
         <v>97</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -5701,7 +5701,7 @@
         <v>97</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>37</v>
@@ -5758,7 +5758,7 @@
         <v>98</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -5793,7 +5793,7 @@
         <v>98</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>36</v>
@@ -5850,7 +5850,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -5907,7 +5907,7 @@
         <v>99</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
@@ -5964,7 +5964,7 @@
         <v>100</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -6021,7 +6021,7 @@
         <v>100</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>34</v>
@@ -6078,7 +6078,7 @@
         <v>101</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -6135,7 +6135,7 @@
         <v>101</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>34</v>
@@ -6192,7 +6192,7 @@
         <v>102</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -6249,7 +6249,7 @@
         <v>102</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>37</v>
@@ -6306,7 +6306,7 @@
         <v>103</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -6363,7 +6363,7 @@
         <v>103</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>35</v>
@@ -6420,7 +6420,7 @@
         <v>104</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -6455,7 +6455,7 @@
         <v>104</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>37</v>
@@ -6512,7 +6512,7 @@
         <v>78</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -6569,7 +6569,7 @@
         <v>78</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>36</v>
@@ -6626,7 +6626,7 @@
         <v>105</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -6683,7 +6683,7 @@
         <v>105</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>36</v>
@@ -6740,7 +6740,7 @@
         <v>106</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -6797,7 +6797,7 @@
         <v>106</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>36</v>
@@ -6854,7 +6854,7 @@
         <v>107</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -6915,7 +6915,7 @@
         <v>107</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>35</v>
@@ -6968,7 +6968,7 @@
         <v>108</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -7024,7 +7024,7 @@
         <v>108</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>36</v>
@@ -7081,7 +7081,7 @@
         <v>109</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -7138,7 +7138,7 @@
         <v>109</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>35</v>
@@ -7195,7 +7195,7 @@
         <v>110</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -7249,7 +7249,7 @@
         <v>110</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>36</v>
@@ -7306,7 +7306,7 @@
         <v>111</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -7363,7 +7363,7 @@
         <v>111</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>35</v>
@@ -7420,7 +7420,7 @@
         <v>114</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -7477,7 +7477,7 @@
         <v>114</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>36</v>
@@ -7534,7 +7534,7 @@
         <v>115</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -7591,7 +7591,7 @@
         <v>115</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>35</v>
@@ -7648,7 +7648,7 @@
         <v>116</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -7705,7 +7705,7 @@
         <v>116</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>35</v>
@@ -7762,7 +7762,7 @@
         <v>117</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -7819,7 +7819,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>35</v>
@@ -7876,7 +7876,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -7933,7 +7933,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>37</v>
@@ -7990,7 +7990,7 @@
         <v>61</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -8047,7 +8047,7 @@
         <v>61</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>37</v>
@@ -8104,7 +8104,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -8161,7 +8161,7 @@
         <v>119</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>36</v>
@@ -8218,7 +8218,7 @@
         <v>120</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -8275,7 +8275,7 @@
         <v>120</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>36</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -8389,7 +8389,7 @@
         <v>121</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>36</v>
@@ -8446,7 +8446,7 @@
         <v>122</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -8503,7 +8503,7 @@
         <v>122</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>36</v>
@@ -8560,7 +8560,7 @@
         <v>123</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" s="4"/>
       <c r="M130" s="4" t="s">
@@ -8609,7 +8609,7 @@
         <v>123</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>35</v>
@@ -8666,7 +8666,7 @@
         <v>124</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132" s="4"/>
       <c r="M132" s="4" t="s">
@@ -8715,7 +8715,7 @@
         <v>124</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>35</v>
@@ -8772,7 +8772,7 @@
         <v>125</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -8829,7 +8829,7 @@
         <v>125</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>37</v>
@@ -8885,7 +8885,7 @@
         <v>126</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -8942,7 +8942,7 @@
         <v>126</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>35</v>
@@ -8999,7 +8999,7 @@
         <v>127</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -9056,7 +9056,7 @@
         <v>127</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>35</v>
@@ -9110,10 +9110,10 @@
         <v>113</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -9167,10 +9167,10 @@
         <v>113</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>34</v>
@@ -9224,10 +9224,10 @@
         <v>113</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -9281,10 +9281,10 @@
         <v>113</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>35</v>
@@ -9338,10 +9338,10 @@
         <v>113</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -9395,10 +9395,10 @@
         <v>113</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>35</v>
@@ -9452,10 +9452,10 @@
         <v>113</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -9509,10 +9509,10 @@
         <v>113</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>36</v>
